--- a/Sb_Information.xlsx
+++ b/Sb_Information.xlsx
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
   <si>
     <t>Temperature</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>2778.00 - 2779.00</t>
+  </si>
+  <si>
+    <t>2780.70 - 2781.35</t>
+  </si>
+  <si>
+    <t>2833.04 - 2833.40</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B35" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -3493,8 +3499,8 @@
   <dimension ref="B2:M146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="7" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5934,12 +5940,24 @@
       <c r="D110" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
+      <c r="E110" s="58">
+        <v>3</v>
+      </c>
+      <c r="F110" s="58">
+        <v>2</v>
+      </c>
+      <c r="G110" s="58">
+        <v>2</v>
+      </c>
+      <c r="H110" s="58">
+        <v>5</v>
+      </c>
+      <c r="I110" s="58">
+        <v>2</v>
+      </c>
+      <c r="J110" s="58">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="62"/>
@@ -5981,7 +5999,7 @@
     <row r="114" spans="2:10">
       <c r="B114" s="62"/>
       <c r="C114" s="61" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D114" s="58" t="s">
         <v>142</v>
@@ -6006,7 +6024,7 @@
     <row r="116" spans="2:10">
       <c r="B116" s="57"/>
       <c r="C116" s="61" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D116" s="58" t="s">
         <v>142</v>
